--- a/dataset/sad2.xlsx
+++ b/dataset/sad2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lini1\AdvancedML_project\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8DD5D-20B2-4736-B395-16F7CE9F1252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EBCE31-7A7B-4DFD-854E-1EDED5C6F6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17230" uniqueCount="8591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17180" uniqueCount="8591">
   <si>
     <t>내공 52 아빠의 가슴앓이</t>
   </si>
@@ -26139,10 +26139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8640"/>
+  <dimension ref="A1:B8590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A204" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8581" workbookViewId="0">
+      <selection activeCell="B8591" sqref="B8591:B8644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -94870,256 +94870,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8591" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8591" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8592" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8592" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8593" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8593" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8594" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8594" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8595" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8595" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8596" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8596" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8597" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8597" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8598" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8598" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8599" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8599" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8600" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8600" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8601" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8601" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8602" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8602" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8603" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8603" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8604" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8604" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8605" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8605" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8606" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8606" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8607" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8607" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8608" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8608" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8609" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8609" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8610" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8610" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8611" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8611" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8612" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8612" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8613" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8613" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8614" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8614" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8615" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8615" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8616" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8616" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8617" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8617" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8618" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8618" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8619" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8619" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8620" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8620" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8621" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8621" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8622" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8622" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8623" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8623" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8624" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8624" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8625" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8625" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8626" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8626" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8627" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8627" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8628" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8628" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8629" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8629" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8630" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8630" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8631" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8631" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8632" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8632" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8633" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8633" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8634" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8634" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8635" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8635" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8636" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8636" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8637" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8637" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8638" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8638" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8639" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8639" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8640" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8640" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
